--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp8a-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp8a-Acvr2b.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6755706666666667</v>
+        <v>1.145036666666667</v>
       </c>
       <c r="H2">
-        <v>2.026712</v>
+        <v>3.43511</v>
       </c>
       <c r="I2">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="J2">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N2">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O2">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P2">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q2">
-        <v>0.7075213309662222</v>
+        <v>2.416330038025555</v>
       </c>
       <c r="R2">
-        <v>6.367691978696</v>
+        <v>21.74697034223</v>
       </c>
       <c r="S2">
-        <v>0.1147243624312663</v>
+        <v>0.1898341711725072</v>
       </c>
       <c r="T2">
-        <v>0.1147243624312663</v>
+        <v>0.1898341711725072</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6755706666666667</v>
+        <v>1.145036666666667</v>
       </c>
       <c r="H3">
-        <v>2.026712</v>
+        <v>3.43511</v>
       </c>
       <c r="I3">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="J3">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.56316</v>
       </c>
       <c r="O3">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P3">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q3">
-        <v>0.3520083477688888</v>
+        <v>0.5966251719555555</v>
       </c>
       <c r="R3">
-        <v>3.16807512992</v>
+        <v>5.369626547599999</v>
       </c>
       <c r="S3">
-        <v>0.05707804344657589</v>
+        <v>0.04687267187696965</v>
       </c>
       <c r="T3">
-        <v>0.05707804344657588</v>
+        <v>0.04687267187696965</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6755706666666667</v>
+        <v>1.145036666666667</v>
       </c>
       <c r="H4">
-        <v>2.026712</v>
+        <v>3.43511</v>
       </c>
       <c r="I4">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="J4">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N4">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O4">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P4">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q4">
-        <v>1.096155292048</v>
+        <v>2.364945372572222</v>
       </c>
       <c r="R4">
-        <v>9.865397628432</v>
+        <v>21.28450835315</v>
       </c>
       <c r="S4">
-        <v>0.177741237616296</v>
+        <v>0.1857972369690651</v>
       </c>
       <c r="T4">
-        <v>0.177741237616296</v>
+        <v>0.1857972369690651</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6755706666666667</v>
+        <v>1.145036666666667</v>
       </c>
       <c r="H5">
-        <v>2.026712</v>
+        <v>3.43511</v>
       </c>
       <c r="I5">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="J5">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N5">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O5">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P5">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q5">
-        <v>0.2476633056391111</v>
+        <v>0.9276945852144445</v>
       </c>
       <c r="R5">
-        <v>2.228969750752</v>
+        <v>8.349251266929999</v>
       </c>
       <c r="S5">
-        <v>0.0401585275150147</v>
+        <v>0.07288248290341552</v>
       </c>
       <c r="T5">
-        <v>0.0401585275150147</v>
+        <v>0.07288248290341552</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4713496666666667</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H6">
         <v>1.414049</v>
       </c>
       <c r="I6">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="J6">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N6">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O6">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P6">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q6">
-        <v>0.4936418349185556</v>
+        <v>0.9946723900952221</v>
       </c>
       <c r="R6">
-        <v>4.442776514267</v>
+        <v>8.952051510856998</v>
       </c>
       <c r="S6">
-        <v>0.08004386907047951</v>
+        <v>0.07814446114165562</v>
       </c>
       <c r="T6">
-        <v>0.08004386907047951</v>
+        <v>0.07814446114165562</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4713496666666667</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H7">
         <v>1.414049</v>
       </c>
       <c r="I7">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="J7">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>1.56316</v>
       </c>
       <c r="O7">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P7">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q7">
-        <v>0.2455983149822222</v>
+        <v>0.2455983149822221</v>
       </c>
       <c r="R7">
         <v>2.21038483484</v>
       </c>
       <c r="S7">
-        <v>0.03982368992614007</v>
+        <v>0.01929494391590285</v>
       </c>
       <c r="T7">
-        <v>0.03982368992614007</v>
+        <v>0.01929494391590285</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4713496666666667</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H8">
         <v>1.414049</v>
       </c>
       <c r="I8">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="J8">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N8">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O8">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P8">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q8">
-        <v>0.7647940578460001</v>
+        <v>0.9735201024538888</v>
       </c>
       <c r="R8">
-        <v>6.883146520614001</v>
+        <v>8.761680922084999</v>
       </c>
       <c r="S8">
-        <v>0.1240111171740661</v>
+        <v>0.07648267366659857</v>
       </c>
       <c r="T8">
-        <v>0.124011117174066</v>
+        <v>0.07648267366659857</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4713496666666667</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H9">
         <v>1.414049</v>
       </c>
       <c r="I9">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="J9">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N9">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O9">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P9">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q9">
-        <v>0.1727961593337778</v>
+        <v>0.3818816866207777</v>
       </c>
       <c r="R9">
-        <v>1.555165434004</v>
+        <v>3.436935179587</v>
       </c>
       <c r="S9">
-        <v>0.02801884316769182</v>
+        <v>0.0300017763818602</v>
       </c>
       <c r="T9">
-        <v>0.02801884316769182</v>
+        <v>0.0300017763818602</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5040686666666666</v>
+        <v>0.6323219999999999</v>
       </c>
       <c r="H10">
-        <v>1.512206</v>
+        <v>1.896966</v>
       </c>
       <c r="I10">
-        <v>0.290771437290087</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="J10">
-        <v>0.2907714372900871</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N10">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O10">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P10">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q10">
-        <v>0.5279082582108888</v>
+        <v>1.334366563782</v>
       </c>
       <c r="R10">
-        <v>4.751174323898</v>
+        <v>12.009299074038</v>
       </c>
       <c r="S10">
-        <v>0.08560015888529572</v>
+        <v>0.1048318593443663</v>
       </c>
       <c r="T10">
-        <v>0.08560015888529574</v>
+        <v>0.1048318593443664</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5040686666666666</v>
+        <v>0.6323219999999999</v>
       </c>
       <c r="H11">
-        <v>1.512206</v>
+        <v>1.896966</v>
       </c>
       <c r="I11">
-        <v>0.290771437290087</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="J11">
-        <v>0.2907714372900871</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.56316</v>
       </c>
       <c r="O11">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P11">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q11">
-        <v>0.2626466589955555</v>
+        <v>0.3294734858399999</v>
       </c>
       <c r="R11">
-        <v>2.36381993096</v>
+        <v>2.96526137256</v>
       </c>
       <c r="S11">
-        <v>0.04258807357343951</v>
+        <v>0.02588443015791855</v>
       </c>
       <c r="T11">
-        <v>0.04258807357343952</v>
+        <v>0.02588443015791856</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5040686666666666</v>
+        <v>0.6323219999999999</v>
       </c>
       <c r="H12">
-        <v>1.512206</v>
+        <v>1.896966</v>
       </c>
       <c r="I12">
-        <v>0.290771437290087</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="J12">
-        <v>0.2907714372900871</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N12">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O12">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P12">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q12">
-        <v>0.8178826639239999</v>
+        <v>1.30599048171</v>
       </c>
       <c r="R12">
-        <v>7.360943975315999</v>
+        <v>11.75391433539</v>
       </c>
       <c r="S12">
-        <v>0.1326194180380777</v>
+        <v>0.1026025488046262</v>
       </c>
       <c r="T12">
-        <v>0.1326194180380777</v>
+        <v>0.1026025488046262</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5040686666666666</v>
+        <v>0.6323219999999999</v>
       </c>
       <c r="H13">
-        <v>1.512206</v>
+        <v>1.896966</v>
       </c>
       <c r="I13">
-        <v>0.290771437290087</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="J13">
-        <v>0.2907714372900871</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N13">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O13">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P13">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q13">
-        <v>0.1847909011084444</v>
+        <v>0.5122994857619999</v>
       </c>
       <c r="R13">
-        <v>1.663118109976</v>
+        <v>4.610695371857999</v>
       </c>
       <c r="S13">
-        <v>0.02996378679327419</v>
+        <v>0.04024779179221641</v>
       </c>
       <c r="T13">
-        <v>0.0299637867932742</v>
+        <v>0.04024779179221642</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08256733333333333</v>
+        <v>0.062692</v>
       </c>
       <c r="H14">
-        <v>0.247702</v>
+        <v>0.188076</v>
       </c>
       <c r="I14">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="J14">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.047294333333333</v>
+        <v>2.110264333333333</v>
       </c>
       <c r="N14">
-        <v>3.141883</v>
+        <v>6.330793</v>
       </c>
       <c r="O14">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="P14">
-        <v>0.2943898468263134</v>
+        <v>0.3832041185227171</v>
       </c>
       <c r="Q14">
-        <v>0.08647230031844444</v>
+        <v>0.1322966915853333</v>
       </c>
       <c r="R14">
-        <v>0.778250702866</v>
+        <v>1.190670224268</v>
       </c>
       <c r="S14">
-        <v>0.01402145643927185</v>
+        <v>0.01039362686418789</v>
       </c>
       <c r="T14">
-        <v>0.01402145643927185</v>
+        <v>0.01039362686418789</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08256733333333333</v>
+        <v>0.062692</v>
       </c>
       <c r="H15">
-        <v>0.247702</v>
+        <v>0.188076</v>
       </c>
       <c r="I15">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="J15">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.56316</v>
       </c>
       <c r="O15">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="P15">
-        <v>0.1464658082318852</v>
+        <v>0.0946183755984393</v>
       </c>
       <c r="Q15">
-        <v>0.04302198425777777</v>
+        <v>0.03266587557333333</v>
       </c>
       <c r="R15">
-        <v>0.3871978583199999</v>
+        <v>0.29399288016</v>
       </c>
       <c r="S15">
-        <v>0.006976001285729665</v>
+        <v>0.00256632964764824</v>
       </c>
       <c r="T15">
-        <v>0.006976001285729665</v>
+        <v>0.00256632964764824</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08256733333333333</v>
+        <v>0.062692</v>
       </c>
       <c r="H16">
-        <v>0.247702</v>
+        <v>0.188076</v>
       </c>
       <c r="I16">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="J16">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.622562</v>
+        <v>2.065388333333333</v>
       </c>
       <c r="N16">
-        <v>4.867686</v>
+        <v>6.196165</v>
       </c>
       <c r="O16">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="P16">
-        <v>0.4560950665376751</v>
+        <v>0.3750550597762889</v>
       </c>
       <c r="Q16">
-        <v>0.133970617508</v>
+        <v>0.1294833253933333</v>
       </c>
       <c r="R16">
-        <v>1.205735557572</v>
+        <v>1.16534992854</v>
       </c>
       <c r="S16">
-        <v>0.02172329370923533</v>
+        <v>0.0101726003359991</v>
       </c>
       <c r="T16">
-        <v>0.02172329370923532</v>
+        <v>0.0101726003359991</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.08256733333333333</v>
+        <v>0.062692</v>
       </c>
       <c r="H17">
-        <v>0.247702</v>
+        <v>0.188076</v>
       </c>
       <c r="I17">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="J17">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3665986666666667</v>
+        <v>0.8101876666666666</v>
       </c>
       <c r="N17">
-        <v>1.099796</v>
+        <v>2.430563</v>
       </c>
       <c r="O17">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="P17">
-        <v>0.1030492784041265</v>
+        <v>0.1471224461025547</v>
       </c>
       <c r="Q17">
-        <v>0.03026907431022222</v>
+        <v>0.05079228519866667</v>
       </c>
       <c r="R17">
-        <v>0.272421668792</v>
+        <v>0.457130566788</v>
       </c>
       <c r="S17">
-        <v>0.004908120928145771</v>
+        <v>0.003990395025062597</v>
       </c>
       <c r="T17">
-        <v>0.004908120928145771</v>
+        <v>0.003990395025062597</v>
       </c>
     </row>
   </sheetData>
